--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Saa1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Saa1-Cd36.xlsx
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Cd36</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Cd36</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
         <v>0.015001</v>
       </c>
       <c r="I2">
-        <v>0.2368965462786033</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="J2">
-        <v>0.2368965462786034</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N2">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O2">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P2">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q2">
-        <v>1.986138412067445</v>
+        <v>1.710521893857778</v>
       </c>
       <c r="R2">
-        <v>17.875245708607</v>
+        <v>15.39469704472</v>
       </c>
       <c r="S2">
-        <v>0.08450568581553893</v>
+        <v>0.151349901691464</v>
       </c>
       <c r="T2">
-        <v>0.08450568581553895</v>
+        <v>0.151349901691464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.015001</v>
       </c>
       <c r="I3">
-        <v>0.2368965462786033</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="J3">
-        <v>0.2368965462786034</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>1.755353</v>
       </c>
       <c r="O3">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P3">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q3">
         <v>0.002925783372555555</v>
@@ -638,10 +638,10 @@
         <v>0.026332050353</v>
       </c>
       <c r="S3">
-        <v>0.0001244854482161396</v>
+        <v>0.0002588783150902022</v>
       </c>
       <c r="T3">
-        <v>0.0001244854482161397</v>
+        <v>0.0002588783150902022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.015001</v>
       </c>
       <c r="I4">
-        <v>0.2368965462786033</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="J4">
-        <v>0.2368965462786034</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N4">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O4">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P4">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q4">
-        <v>2.380890628794222</v>
+        <v>0.2105233472875556</v>
       </c>
       <c r="R4">
-        <v>21.428015659148</v>
+        <v>1.894710125588</v>
       </c>
       <c r="S4">
-        <v>0.1013014975268568</v>
+        <v>0.01862746570514151</v>
       </c>
       <c r="T4">
-        <v>0.1013014975268568</v>
+        <v>0.01862746570514151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.015001</v>
       </c>
       <c r="I5">
-        <v>0.2368965462786033</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="J5">
-        <v>0.2368965462786034</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N5">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O5">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P5">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q5">
-        <v>0.03795960880522222</v>
+        <v>0.01979500124544444</v>
       </c>
       <c r="R5">
-        <v>0.341636479247</v>
+        <v>0.178155011209</v>
       </c>
       <c r="S5">
-        <v>0.001615095280311182</v>
+        <v>0.001751495554215645</v>
       </c>
       <c r="T5">
-        <v>0.001615095280311182</v>
+        <v>0.001751495554215645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.015001</v>
       </c>
       <c r="I6">
-        <v>0.2368965462786033</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="J6">
-        <v>0.2368965462786034</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N6">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O6">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P6">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q6">
-        <v>1.159868677757222</v>
+        <v>0.4754731644312222</v>
       </c>
       <c r="R6">
-        <v>10.438818099815</v>
+        <v>4.279258479881</v>
       </c>
       <c r="S6">
-        <v>0.0493497822076803</v>
+        <v>0.04207067851747599</v>
       </c>
       <c r="T6">
-        <v>0.04934978220768032</v>
+        <v>0.04207067851747599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.004111666666666667</v>
+        <v>0.000593</v>
       </c>
       <c r="H7">
-        <v>0.012335</v>
+        <v>0.001779</v>
       </c>
       <c r="I7">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="J7">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N7">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O7">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P7">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q7">
-        <v>1.633158943593889</v>
+        <v>0.2028543729866667</v>
       </c>
       <c r="R7">
-        <v>14.698430492345</v>
+        <v>1.82568935688</v>
       </c>
       <c r="S7">
-        <v>0.06948720982165675</v>
+        <v>0.01794890174715782</v>
       </c>
       <c r="T7">
-        <v>0.06948720982165675</v>
+        <v>0.01794890174715781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.004111666666666667</v>
+        <v>0.000593</v>
       </c>
       <c r="H8">
-        <v>0.012335</v>
+        <v>0.001779</v>
       </c>
       <c r="I8">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="J8">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>1.755353</v>
       </c>
       <c r="O8">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P8">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q8">
-        <v>0.002405808806111111</v>
+        <v>0.0003469747763333333</v>
       </c>
       <c r="R8">
-        <v>0.021652279255</v>
+        <v>0.003122772987</v>
       </c>
       <c r="S8">
-        <v>0.0001023617094691076</v>
+        <v>3.070092144160188E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001023617094691076</v>
+        <v>3.070092144160187E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.004111666666666667</v>
+        <v>0.000593</v>
       </c>
       <c r="H9">
-        <v>0.012335</v>
+        <v>0.001779</v>
       </c>
       <c r="I9">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="J9">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N9">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O9">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P9">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q9">
-        <v>1.957755210064444</v>
+        <v>0.02496640456133334</v>
       </c>
       <c r="R9">
-        <v>17.61979689058</v>
+        <v>0.224697641052</v>
       </c>
       <c r="S9">
-        <v>0.08329804492992322</v>
+        <v>0.002209070161285698</v>
       </c>
       <c r="T9">
-        <v>0.08329804492992325</v>
+        <v>0.002209070161285697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.004111666666666667</v>
+        <v>0.000593</v>
       </c>
       <c r="H10">
-        <v>0.012335</v>
+        <v>0.001779</v>
       </c>
       <c r="I10">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="J10">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N10">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O10">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P10">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q10">
-        <v>0.03121337074944445</v>
+        <v>0.002347530645666666</v>
       </c>
       <c r="R10">
-        <v>0.2809203367450001</v>
+        <v>0.021127775811</v>
       </c>
       <c r="S10">
-        <v>0.001328058148299342</v>
+        <v>0.0002077135251616314</v>
       </c>
       <c r="T10">
-        <v>0.001328058148299342</v>
+        <v>0.0002077135251616314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,25 +1089,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.004111666666666667</v>
+        <v>0.000593</v>
       </c>
       <c r="H11">
-        <v>0.012335</v>
+        <v>0.001779</v>
       </c>
       <c r="I11">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="J11">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N11">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O11">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P11">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q11">
-        <v>0.9537350936694445</v>
+        <v>0.05638735814433334</v>
       </c>
       <c r="R11">
-        <v>8.583615843025001</v>
+        <v>0.5074862232989999</v>
       </c>
       <c r="S11">
-        <v>0.04057926561774126</v>
+        <v>0.004989249855515619</v>
       </c>
       <c r="T11">
-        <v>0.04057926561774126</v>
+        <v>0.004989249855515619</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01199566666666667</v>
+        <v>0.01776633333333333</v>
       </c>
       <c r="H12">
-        <v>0.035987</v>
+        <v>0.053299</v>
       </c>
       <c r="I12">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="J12">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N12">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O12">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P12">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q12">
-        <v>4.764693222789889</v>
+        <v>6.077535259031111</v>
       </c>
       <c r="R12">
-        <v>42.882239005109</v>
+        <v>54.69781733128001</v>
       </c>
       <c r="S12">
-        <v>0.202726892570082</v>
+        <v>0.5377507106361801</v>
       </c>
       <c r="T12">
-        <v>0.202726892570082</v>
+        <v>0.5377507106361801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01199566666666667</v>
+        <v>0.01776633333333333</v>
       </c>
       <c r="H13">
-        <v>0.035987</v>
+        <v>0.053299</v>
       </c>
       <c r="I13">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="J13">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.755353</v>
       </c>
       <c r="O13">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P13">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q13">
-        <v>0.007018876490111111</v>
+        <v>0.01039539550522222</v>
       </c>
       <c r="R13">
-        <v>0.06316988841099999</v>
+        <v>0.093558559547</v>
       </c>
       <c r="S13">
-        <v>0.0002986372791783359</v>
+        <v>0.0009198023675750074</v>
       </c>
       <c r="T13">
-        <v>0.000298637279178336</v>
+        <v>0.0009198023675750074</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01199566666666667</v>
+        <v>0.01776633333333333</v>
       </c>
       <c r="H14">
-        <v>0.035987</v>
+        <v>0.053299</v>
       </c>
       <c r="I14">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="J14">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N14">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O14">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P14">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q14">
-        <v>5.711693291008444</v>
+        <v>0.7479957260902222</v>
       </c>
       <c r="R14">
-        <v>51.40523961907599</v>
+        <v>6.731961534812</v>
       </c>
       <c r="S14">
-        <v>0.2430195981267245</v>
+        <v>0.06618394071184169</v>
       </c>
       <c r="T14">
-        <v>0.2430195981267246</v>
+        <v>0.06618394071184169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01199566666666667</v>
+        <v>0.01776633333333333</v>
       </c>
       <c r="H15">
-        <v>0.035987</v>
+        <v>0.053299</v>
       </c>
       <c r="I15">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="J15">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N15">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O15">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P15">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q15">
-        <v>0.09106409186544445</v>
+        <v>0.07033222927677776</v>
       </c>
       <c r="R15">
-        <v>0.819576826789</v>
+        <v>0.632990063491</v>
       </c>
       <c r="S15">
-        <v>0.00387457061879598</v>
+        <v>0.006223115895216296</v>
       </c>
       <c r="T15">
-        <v>0.003874570618795981</v>
+        <v>0.006223115895216296</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01199566666666667</v>
+        <v>0.01776633333333333</v>
       </c>
       <c r="H16">
-        <v>0.035987</v>
+        <v>0.053299</v>
       </c>
       <c r="I16">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="J16">
-        <v>0.568308513494307</v>
+        <v>0.7605559440060503</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N16">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O16">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P16">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q16">
-        <v>2.782494107489444</v>
+        <v>1.689370321379889</v>
       </c>
       <c r="R16">
-        <v>25.042446967405</v>
+        <v>15.204332892419</v>
       </c>
       <c r="S16">
-        <v>0.1183888148995261</v>
+        <v>0.1494783743952372</v>
       </c>
       <c r="T16">
-        <v>0.1183888148995261</v>
+        <v>0.1494783743952372</v>
       </c>
     </row>
   </sheetData>
